--- a/data/input/DOC_20241125_EN720_AE2426_wDOCandTNdata20241220_edited.xlsx
+++ b/data/input/DOC_20241125_EN720_AE2426_wDOCandTNdata20241220_edited.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADD31BB-3A94-4DEB-B00E-ADBA7998C1DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398C517-F917-4CA7-AFEB-18856441C20F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="editedDATA SUMMARY" sheetId="7" r:id="rId1"/>
-    <sheet name="DATA SUMMARY" sheetId="6" r:id="rId2"/>
-    <sheet name="DOC DIAGNOSTICS" sheetId="4" r:id="rId3"/>
-    <sheet name="TDN DIAGNOSTICS" sheetId="5" r:id="rId4"/>
+    <sheet name="USEMEeditedDATA SUMMARY" sheetId="8" r:id="rId1"/>
+    <sheet name="editedDATA SUMMARY" sheetId="7" r:id="rId2"/>
+    <sheet name="DATA SUMMARY" sheetId="6" r:id="rId3"/>
+    <sheet name="DOC DIAGNOSTICS" sheetId="4" r:id="rId4"/>
+    <sheet name="TDN DIAGNOSTICS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="101">
   <si>
     <t>Project:</t>
   </si>
@@ -329,6 +330,9 @@
   <si>
     <t>Septa initially put on upside down, used forceps to flip around when discovered in lab during cruise</t>
   </si>
+  <si>
+    <t>Originally submitted with incorrect cast 10 when actually cast 11</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +342,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,6 +471,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -656,7 +667,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -775,6 +786,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,33 +843,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,7 +853,224 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{6C9B58CE-11AE-4930-A890-BF708FE69F2D}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{C9647B0D-74A7-4A45-88D3-30BFA67AF6B8}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9C5BCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9F5FCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9F5FCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9F5FCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9F5FCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9F5FCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1413,10 +1645,4050 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB08806-9E5A-4BC3-8AFA-94C14F2E44EB}">
+  <dimension ref="A1:S73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15:S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="48" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" style="48"/>
+    <col min="14" max="14" width="11.796875" style="48" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="70" customFormat="1" ht="41.4">
+      <c r="A1" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="38">
+        <v>20240906</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1845</v>
+      </c>
+      <c r="D2" s="38">
+        <v>20</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="38">
+        <v>2</v>
+      </c>
+      <c r="H2" s="38">
+        <v>13</v>
+      </c>
+      <c r="I2" s="38">
+        <v>3</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="60">
+        <v>1</v>
+      </c>
+      <c r="M2" s="60">
+        <v>1</v>
+      </c>
+      <c r="N2" s="65"/>
+      <c r="O2" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="55">
+        <v>91.727247282744827</v>
+      </c>
+      <c r="R2" s="55">
+        <v>5.5414584998261773</v>
+      </c>
+      <c r="S2" s="57"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="40">
+        <v>20240907</v>
+      </c>
+      <c r="C3" s="41">
+        <v>200</v>
+      </c>
+      <c r="D3" s="40">
+        <v>46</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="40">
+        <v>3</v>
+      </c>
+      <c r="H3" s="40">
+        <v>18</v>
+      </c>
+      <c r="I3" s="40">
+        <v>3</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="60">
+        <v>1</v>
+      </c>
+      <c r="M3" s="60">
+        <v>1</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="55">
+        <v>86.902564087152527</v>
+      </c>
+      <c r="R3" s="55">
+        <v>4.9079059838284014</v>
+      </c>
+      <c r="S3" s="57"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="38">
+        <v>20240907</v>
+      </c>
+      <c r="C4" s="39">
+        <v>915</v>
+      </c>
+      <c r="D4" s="38">
+        <v>64</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="38">
+        <v>6</v>
+      </c>
+      <c r="H4" s="38">
+        <v>5</v>
+      </c>
+      <c r="I4" s="38">
+        <v>32</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="60">
+        <v>1</v>
+      </c>
+      <c r="M4" s="60">
+        <v>1</v>
+      </c>
+      <c r="N4" s="65"/>
+      <c r="O4" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="55">
+        <v>76.979599899824706</v>
+      </c>
+      <c r="R4" s="55">
+        <v>6.2621776371525044</v>
+      </c>
+      <c r="S4" s="57"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="38">
+        <v>20240907</v>
+      </c>
+      <c r="C5" s="39">
+        <v>915</v>
+      </c>
+      <c r="D5" s="38">
+        <v>64</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="38">
+        <v>6</v>
+      </c>
+      <c r="H5" s="38">
+        <v>18</v>
+      </c>
+      <c r="I5" s="38">
+        <v>3</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="60">
+        <v>1</v>
+      </c>
+      <c r="M5" s="60">
+        <v>1</v>
+      </c>
+      <c r="N5" s="65"/>
+      <c r="O5" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>84.077219734535447</v>
+      </c>
+      <c r="R5" s="55">
+        <v>4.8462515443521079</v>
+      </c>
+      <c r="S5" s="57"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="38">
+        <v>20240907</v>
+      </c>
+      <c r="C6" s="39">
+        <v>915</v>
+      </c>
+      <c r="D6" s="38">
+        <v>64</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="38">
+        <v>6</v>
+      </c>
+      <c r="H6" s="38">
+        <v>18</v>
+      </c>
+      <c r="I6" s="38">
+        <v>3</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="60">
+        <v>1</v>
+      </c>
+      <c r="M6" s="60">
+        <v>1</v>
+      </c>
+      <c r="N6" s="65"/>
+      <c r="O6" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>83.675897420485853</v>
+      </c>
+      <c r="R6" s="55">
+        <v>4.7909751503388796</v>
+      </c>
+      <c r="S6" s="57"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="40">
+        <v>20240907</v>
+      </c>
+      <c r="C7" s="41">
+        <v>1704</v>
+      </c>
+      <c r="D7" s="40">
+        <v>76</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="40">
+        <v>7</v>
+      </c>
+      <c r="H7" s="40">
+        <v>6</v>
+      </c>
+      <c r="I7" s="40">
+        <v>42</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="60">
+        <v>1</v>
+      </c>
+      <c r="M7" s="60">
+        <v>1</v>
+      </c>
+      <c r="N7" s="65"/>
+      <c r="O7" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>75.504911194590534</v>
+      </c>
+      <c r="R7" s="55">
+        <v>4.7378247714800059</v>
+      </c>
+      <c r="S7" s="57"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="40">
+        <v>20240907</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1704</v>
+      </c>
+      <c r="D8" s="40">
+        <v>76</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="40">
+        <v>7</v>
+      </c>
+      <c r="H8" s="40">
+        <v>15</v>
+      </c>
+      <c r="I8" s="40">
+        <v>3</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="M8" s="60">
+        <v>1</v>
+      </c>
+      <c r="N8" s="65"/>
+      <c r="O8" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>81.041076483846737</v>
+      </c>
+      <c r="R8" s="55">
+        <v>4.9015279383653363</v>
+      </c>
+      <c r="S8" s="57"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="38">
+        <v>20240908</v>
+      </c>
+      <c r="C9" s="39">
+        <v>503</v>
+      </c>
+      <c r="D9" s="38">
+        <v>440</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="38">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38">
+        <v>2</v>
+      </c>
+      <c r="I9" s="38">
+        <v>435</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="60">
+        <v>1</v>
+      </c>
+      <c r="M9" s="60">
+        <v>1</v>
+      </c>
+      <c r="N9" s="65"/>
+      <c r="O9" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P9" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="55">
+        <v>47.082200450788882</v>
+      </c>
+      <c r="R9" s="55">
+        <v>23.795424615117774</v>
+      </c>
+      <c r="S9" s="57"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="38">
+        <v>20240908</v>
+      </c>
+      <c r="C10" s="39">
+        <v>503</v>
+      </c>
+      <c r="D10" s="38">
+        <v>440</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="38">
+        <v>8</v>
+      </c>
+      <c r="H10" s="38">
+        <v>4</v>
+      </c>
+      <c r="I10" s="38">
+        <v>100</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="51"/>
+      <c r="L10" s="60">
+        <v>1</v>
+      </c>
+      <c r="M10" s="60">
+        <v>1</v>
+      </c>
+      <c r="N10" s="65"/>
+      <c r="O10" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P10" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>51.537594390182832</v>
+      </c>
+      <c r="R10" s="55">
+        <v>14.647181405928427</v>
+      </c>
+      <c r="S10" s="57"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="38">
+        <v>20240908</v>
+      </c>
+      <c r="C11" s="39">
+        <v>503</v>
+      </c>
+      <c r="D11" s="38">
+        <v>440</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="38">
+        <v>8</v>
+      </c>
+      <c r="H11" s="38">
+        <v>4</v>
+      </c>
+      <c r="I11" s="38">
+        <v>100</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="60">
+        <v>1</v>
+      </c>
+      <c r="M11" s="60">
+        <v>1</v>
+      </c>
+      <c r="N11" s="65"/>
+      <c r="O11" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P11" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="55">
+        <v>51.46571560230403</v>
+      </c>
+      <c r="R11" s="55">
+        <v>14.415445754103738</v>
+      </c>
+      <c r="S11" s="57"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="38">
+        <v>20240908</v>
+      </c>
+      <c r="C12" s="39">
+        <v>503</v>
+      </c>
+      <c r="D12" s="38">
+        <v>440</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="38">
+        <v>8</v>
+      </c>
+      <c r="H12" s="38">
+        <v>9</v>
+      </c>
+      <c r="I12" s="38">
+        <v>53</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="60">
+        <v>1</v>
+      </c>
+      <c r="M12" s="60">
+        <v>1</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="55">
+        <v>63.228789982469323</v>
+      </c>
+      <c r="R12" s="55">
+        <v>6.1739480082467741</v>
+      </c>
+      <c r="S12" s="57"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="38">
+        <v>20240908</v>
+      </c>
+      <c r="C13" s="39">
+        <v>503</v>
+      </c>
+      <c r="D13" s="38">
+        <v>440</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="38">
+        <v>8</v>
+      </c>
+      <c r="H13" s="38">
+        <v>21</v>
+      </c>
+      <c r="I13" s="38">
+        <v>3</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="51"/>
+      <c r="L13" s="60">
+        <v>1</v>
+      </c>
+      <c r="M13" s="60">
+        <v>1</v>
+      </c>
+      <c r="N13" s="65"/>
+      <c r="O13" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>77.655985574755832</v>
+      </c>
+      <c r="R13" s="55">
+        <v>4.1914388768107829</v>
+      </c>
+      <c r="S13" s="57"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="40">
+        <v>20240908</v>
+      </c>
+      <c r="C14" s="41">
+        <v>1301</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1597</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="85">
+        <v>11</v>
+      </c>
+      <c r="H14" s="40">
+        <v>2</v>
+      </c>
+      <c r="I14" s="40">
+        <v>500</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="60">
+        <v>1</v>
+      </c>
+      <c r="M14" s="60">
+        <v>1</v>
+      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>46.810266666666671</v>
+      </c>
+      <c r="R14" s="55">
+        <v>21.997878802110669</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="40">
+        <v>20240908</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1301</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1597</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="85">
+        <v>11</v>
+      </c>
+      <c r="H15" s="40">
+        <v>2</v>
+      </c>
+      <c r="I15" s="40">
+        <v>500</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="60">
+        <v>1</v>
+      </c>
+      <c r="M15" s="60">
+        <v>1</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>46.375600000000006</v>
+      </c>
+      <c r="R15" s="55">
+        <v>22.212606332700517</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="40">
+        <v>20240908</v>
+      </c>
+      <c r="C16" s="41">
+        <v>1301</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1597</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="85">
+        <v>11</v>
+      </c>
+      <c r="H16" s="40">
+        <v>4</v>
+      </c>
+      <c r="I16" s="40">
+        <v>100</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="60">
+        <v>1</v>
+      </c>
+      <c r="M16" s="60">
+        <v>1</v>
+      </c>
+      <c r="N16" s="65"/>
+      <c r="O16" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="55">
+        <v>53.076933333333336</v>
+      </c>
+      <c r="R16" s="55">
+        <v>15.250969709765235</v>
+      </c>
+      <c r="S16" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="40">
+        <v>20240908</v>
+      </c>
+      <c r="C17" s="41">
+        <v>1301</v>
+      </c>
+      <c r="D17" s="40">
+        <v>1597</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="85">
+        <v>11</v>
+      </c>
+      <c r="H17" s="40">
+        <v>8</v>
+      </c>
+      <c r="I17" s="40">
+        <v>47</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="60">
+        <v>1</v>
+      </c>
+      <c r="M17" s="60">
+        <v>1</v>
+      </c>
+      <c r="N17" s="65"/>
+      <c r="O17" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P17" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>69.402266666666662</v>
+      </c>
+      <c r="R17" s="55">
+        <v>4.463568816568217</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="40">
+        <v>20240908</v>
+      </c>
+      <c r="C18" s="41">
+        <v>1301</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1597</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="85">
+        <v>11</v>
+      </c>
+      <c r="H18" s="40">
+        <v>18</v>
+      </c>
+      <c r="I18" s="40">
+        <v>3</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="60">
+        <v>1</v>
+      </c>
+      <c r="M18" s="60">
+        <v>1</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>77.647599999999997</v>
+      </c>
+      <c r="R18" s="55">
+        <v>4.578373634903385</v>
+      </c>
+      <c r="S18" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C19" s="39">
+        <v>526</v>
+      </c>
+      <c r="D19" s="38">
+        <v>93</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="38">
+        <v>14</v>
+      </c>
+      <c r="H19" s="38">
+        <v>2</v>
+      </c>
+      <c r="I19" s="38">
+        <v>90</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="51"/>
+      <c r="L19" s="60">
+        <v>1</v>
+      </c>
+      <c r="M19" s="60">
+        <v>1</v>
+      </c>
+      <c r="N19" s="65"/>
+      <c r="O19" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P19" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="55">
+        <v>61.092933333333335</v>
+      </c>
+      <c r="R19" s="55">
+        <v>12.888966873276885</v>
+      </c>
+      <c r="S19" s="57"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C20" s="39">
+        <v>526</v>
+      </c>
+      <c r="D20" s="38">
+        <v>93</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="38">
+        <v>14</v>
+      </c>
+      <c r="H20" s="38">
+        <v>8</v>
+      </c>
+      <c r="I20" s="38">
+        <v>35</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="51"/>
+      <c r="L20" s="60">
+        <v>1</v>
+      </c>
+      <c r="M20" s="60">
+        <v>1</v>
+      </c>
+      <c r="N20" s="65"/>
+      <c r="O20" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="55">
+        <v>77.140933333333351</v>
+      </c>
+      <c r="R20" s="55">
+        <v>4.6251459682991936</v>
+      </c>
+      <c r="S20" s="57"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C21" s="39">
+        <v>526</v>
+      </c>
+      <c r="D21" s="38">
+        <v>93</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="38">
+        <v>14</v>
+      </c>
+      <c r="H21" s="38">
+        <v>18</v>
+      </c>
+      <c r="I21" s="38">
+        <v>3</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="51"/>
+      <c r="L21" s="60">
+        <v>1</v>
+      </c>
+      <c r="M21" s="60">
+        <v>1</v>
+      </c>
+      <c r="N21" s="65"/>
+      <c r="O21" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="55">
+        <v>79.72226666666667</v>
+      </c>
+      <c r="R21" s="55">
+        <v>4.7856601124529918</v>
+      </c>
+      <c r="S21" s="57"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C22" s="39">
+        <v>526</v>
+      </c>
+      <c r="D22" s="38">
+        <v>93</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="38">
+        <v>14</v>
+      </c>
+      <c r="H22" s="38">
+        <v>18</v>
+      </c>
+      <c r="I22" s="38">
+        <v>3</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="60">
+        <v>1</v>
+      </c>
+      <c r="M22" s="60">
+        <v>1</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="O22" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P22" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="55">
+        <v>80.700933333333339</v>
+      </c>
+      <c r="R22" s="55">
+        <v>4.8292434231172683</v>
+      </c>
+      <c r="S22" s="57"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="40">
+        <v>20240909</v>
+      </c>
+      <c r="C23" s="41">
+        <v>857</v>
+      </c>
+      <c r="D23" s="40">
+        <v>137</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="40">
+        <v>15</v>
+      </c>
+      <c r="H23" s="40">
+        <v>2</v>
+      </c>
+      <c r="I23" s="40">
+        <v>132</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="60">
+        <v>1</v>
+      </c>
+      <c r="M23" s="60">
+        <v>1</v>
+      </c>
+      <c r="N23" s="65"/>
+      <c r="O23" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P23" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="55">
+        <v>50.439600000000006</v>
+      </c>
+      <c r="R23" s="55">
+        <v>20.116355390506534</v>
+      </c>
+      <c r="S23" s="57"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="40">
+        <v>20240909</v>
+      </c>
+      <c r="C24" s="41">
+        <v>857</v>
+      </c>
+      <c r="D24" s="40">
+        <v>137</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="40">
+        <v>15</v>
+      </c>
+      <c r="H24" s="40">
+        <v>3</v>
+      </c>
+      <c r="I24" s="40">
+        <v>100</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="52"/>
+      <c r="L24" s="60">
+        <v>1</v>
+      </c>
+      <c r="M24" s="60">
+        <v>1</v>
+      </c>
+      <c r="N24" s="65"/>
+      <c r="O24" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P24" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="55">
+        <v>59.836933333333334</v>
+      </c>
+      <c r="R24" s="55">
+        <v>12.836879501995186</v>
+      </c>
+      <c r="S24" s="57"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="40">
+        <v>20240909</v>
+      </c>
+      <c r="C25" s="41">
+        <v>857</v>
+      </c>
+      <c r="D25" s="40">
+        <v>137</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="40">
+        <v>15</v>
+      </c>
+      <c r="H25" s="40">
+        <v>8</v>
+      </c>
+      <c r="I25" s="40">
+        <v>38</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="52"/>
+      <c r="L25" s="60">
+        <v>1</v>
+      </c>
+      <c r="M25" s="60">
+        <v>1</v>
+      </c>
+      <c r="N25" s="65"/>
+      <c r="O25" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="55">
+        <v>68.33026666666666</v>
+      </c>
+      <c r="R25" s="55">
+        <v>11.197721817987521</v>
+      </c>
+      <c r="S25" s="57"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="40">
+        <v>20240909</v>
+      </c>
+      <c r="C26" s="41">
+        <v>857</v>
+      </c>
+      <c r="D26" s="40">
+        <v>137</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="40">
+        <v>15</v>
+      </c>
+      <c r="H26" s="40">
+        <v>11</v>
+      </c>
+      <c r="I26" s="40">
+        <v>24</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="52"/>
+      <c r="L26" s="60">
+        <v>1</v>
+      </c>
+      <c r="M26" s="60">
+        <v>1</v>
+      </c>
+      <c r="N26" s="65"/>
+      <c r="O26" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P26" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="55">
+        <v>71.380933333333331</v>
+      </c>
+      <c r="R26" s="55">
+        <v>7.2273885172296524</v>
+      </c>
+      <c r="S26" s="57"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="40">
+        <v>20240909</v>
+      </c>
+      <c r="C27" s="41">
+        <v>857</v>
+      </c>
+      <c r="D27" s="40">
+        <v>137</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="40">
+        <v>15</v>
+      </c>
+      <c r="H27" s="40">
+        <v>18</v>
+      </c>
+      <c r="I27" s="40">
+        <v>3</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="60">
+        <v>1</v>
+      </c>
+      <c r="M27" s="60">
+        <v>1</v>
+      </c>
+      <c r="N27" s="65"/>
+      <c r="O27" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P27" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="55">
+        <v>78.002266666666671</v>
+      </c>
+      <c r="R27" s="55">
+        <v>4.6379020592253237</v>
+      </c>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C28" s="39">
+        <v>2135</v>
+      </c>
+      <c r="D28" s="38">
+        <v>122</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="38">
+        <v>16</v>
+      </c>
+      <c r="H28" s="38">
+        <v>2</v>
+      </c>
+      <c r="I28" s="38">
+        <v>116</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="60">
+        <v>1</v>
+      </c>
+      <c r="M28" s="60">
+        <v>1</v>
+      </c>
+      <c r="N28" s="65"/>
+      <c r="O28" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P28" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="55">
+        <v>55.319600000000001</v>
+      </c>
+      <c r="R28" s="55">
+        <v>17.00280619695371</v>
+      </c>
+      <c r="S28" s="57"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C29" s="39">
+        <v>2135</v>
+      </c>
+      <c r="D29" s="38">
+        <v>122</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="38">
+        <v>16</v>
+      </c>
+      <c r="H29" s="38">
+        <v>8</v>
+      </c>
+      <c r="I29" s="38">
+        <v>30</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="51"/>
+      <c r="L29" s="60">
+        <v>1</v>
+      </c>
+      <c r="M29" s="60">
+        <v>1</v>
+      </c>
+      <c r="N29" s="65"/>
+      <c r="O29" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P29" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="55">
+        <v>75.756933333333336</v>
+      </c>
+      <c r="R29" s="55">
+        <v>4.9812535066536476</v>
+      </c>
+      <c r="S29" s="57"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C30" s="39">
+        <v>2135</v>
+      </c>
+      <c r="D30" s="38">
+        <v>122</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="38">
+        <v>16</v>
+      </c>
+      <c r="H30" s="38">
+        <v>19</v>
+      </c>
+      <c r="I30" s="38">
+        <v>3</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="51"/>
+      <c r="L30" s="60">
+        <v>1</v>
+      </c>
+      <c r="M30" s="60">
+        <v>1</v>
+      </c>
+      <c r="N30" s="65"/>
+      <c r="O30" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P30" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="55">
+        <v>79.644933333333327</v>
+      </c>
+      <c r="R30" s="55">
+        <v>4.7750300366812173</v>
+      </c>
+      <c r="S30" s="57"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C31" s="41">
+        <v>615</v>
+      </c>
+      <c r="D31" s="40">
+        <v>205</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="40">
+        <v>19</v>
+      </c>
+      <c r="H31" s="40">
+        <v>2</v>
+      </c>
+      <c r="I31" s="40">
+        <v>200</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="52"/>
+      <c r="L31" s="60">
+        <v>1</v>
+      </c>
+      <c r="M31" s="60">
+        <v>1</v>
+      </c>
+      <c r="N31" s="65"/>
+      <c r="O31" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="55">
+        <v>47.855600000000003</v>
+      </c>
+      <c r="R31" s="55">
+        <v>21.025226868993276</v>
+      </c>
+      <c r="S31" s="57"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C32" s="41">
+        <v>615</v>
+      </c>
+      <c r="D32" s="40">
+        <v>205</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="40">
+        <v>19</v>
+      </c>
+      <c r="H32" s="40">
+        <v>3</v>
+      </c>
+      <c r="I32" s="40">
+        <v>92</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="60">
+        <v>1</v>
+      </c>
+      <c r="M32" s="60">
+        <v>1</v>
+      </c>
+      <c r="N32" s="65"/>
+      <c r="O32" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P32" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="55">
+        <v>53.479599999999998</v>
+      </c>
+      <c r="R32" s="55">
+        <v>13.668151427347974</v>
+      </c>
+      <c r="S32" s="57"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C33" s="41">
+        <v>615</v>
+      </c>
+      <c r="D33" s="40">
+        <v>205</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="40">
+        <v>19</v>
+      </c>
+      <c r="H33" s="40">
+        <v>10</v>
+      </c>
+      <c r="I33" s="40">
+        <v>40</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="60">
+        <v>1</v>
+      </c>
+      <c r="M33" s="60">
+        <v>1</v>
+      </c>
+      <c r="N33" s="65"/>
+      <c r="O33" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P33" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="55">
+        <v>68.327600000000004</v>
+      </c>
+      <c r="R33" s="55">
+        <v>5.0429079461299411</v>
+      </c>
+      <c r="S33" s="57"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C34" s="41">
+        <v>615</v>
+      </c>
+      <c r="D34" s="40">
+        <v>205</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="40">
+        <v>19</v>
+      </c>
+      <c r="H34" s="40">
+        <v>20</v>
+      </c>
+      <c r="I34" s="40">
+        <v>3</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="60">
+        <v>1</v>
+      </c>
+      <c r="M34" s="60">
+        <v>1</v>
+      </c>
+      <c r="N34" s="65"/>
+      <c r="O34" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P34" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="55">
+        <v>76.75160000000001</v>
+      </c>
+      <c r="R34" s="55">
+        <v>4.5539244606283029</v>
+      </c>
+      <c r="S34" s="57"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C35" s="41">
+        <v>615</v>
+      </c>
+      <c r="D35" s="40">
+        <v>205</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="40">
+        <v>19</v>
+      </c>
+      <c r="H35" s="40">
+        <v>20</v>
+      </c>
+      <c r="I35" s="40">
+        <v>3</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="60">
+        <v>1</v>
+      </c>
+      <c r="M35" s="60">
+        <v>1</v>
+      </c>
+      <c r="N35" s="65"/>
+      <c r="O35" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P35" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="55">
+        <v>76.36226666666667</v>
+      </c>
+      <c r="R35" s="55">
+        <v>4.4880179908433</v>
+      </c>
+      <c r="S35" s="57"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C36" s="38">
+        <v>2100</v>
+      </c>
+      <c r="D36" s="38">
+        <v>55</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="38">
+        <v>20</v>
+      </c>
+      <c r="H36" s="38">
+        <v>9</v>
+      </c>
+      <c r="I36" s="38">
+        <v>34</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="60">
+        <v>1</v>
+      </c>
+      <c r="M36" s="60">
+        <v>1</v>
+      </c>
+      <c r="N36" s="65"/>
+      <c r="O36" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P36" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q36" s="55">
+        <v>76.655600000000007</v>
+      </c>
+      <c r="R36" s="55">
+        <v>4.8388104913118655</v>
+      </c>
+      <c r="S36" s="57"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C37" s="38">
+        <v>2100</v>
+      </c>
+      <c r="D37" s="38">
+        <v>55</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="38">
+        <v>20</v>
+      </c>
+      <c r="H37" s="38">
+        <v>20</v>
+      </c>
+      <c r="I37" s="38">
+        <v>4</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="60">
+        <v>1</v>
+      </c>
+      <c r="M37" s="60">
+        <v>1</v>
+      </c>
+      <c r="N37" s="65"/>
+      <c r="O37" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P37" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="55">
+        <v>82.860933333333335</v>
+      </c>
+      <c r="R37" s="55">
+        <v>5.3681882647462489</v>
+      </c>
+      <c r="S37" s="57"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C38" s="40">
+        <v>533</v>
+      </c>
+      <c r="D38" s="40">
+        <v>18</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="40">
+        <v>24</v>
+      </c>
+      <c r="H38" s="40">
+        <v>7</v>
+      </c>
+      <c r="I38" s="40">
+        <v>3</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="52"/>
+      <c r="L38" s="60">
+        <v>1</v>
+      </c>
+      <c r="M38" s="60">
+        <v>1</v>
+      </c>
+      <c r="N38" s="65"/>
+      <c r="O38" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P38" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="55">
+        <v>90.167600000000007</v>
+      </c>
+      <c r="R38" s="55">
+        <v>5.7838242274226408</v>
+      </c>
+      <c r="S38" s="57"/>
+    </row>
+    <row r="39" spans="1:19" ht="16.2" thickBot="1">
+      <c r="A39" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="42">
+        <v>20240911</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="60">
+        <v>1</v>
+      </c>
+      <c r="M39" s="60">
+        <v>1</v>
+      </c>
+      <c r="N39" s="65"/>
+      <c r="O39" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P39" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="55">
+        <v>3.1985333333333337</v>
+      </c>
+      <c r="R39" s="55">
+        <v>0.15190378277866118</v>
+      </c>
+      <c r="S39" s="57"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="44">
+        <v>20241106</v>
+      </c>
+      <c r="C40" s="44">
+        <v>1626</v>
+      </c>
+      <c r="D40" s="44">
+        <v>22</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="44">
+        <v>1</v>
+      </c>
+      <c r="H40" s="44">
+        <v>20</v>
+      </c>
+      <c r="I40" s="44">
+        <v>3</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="54"/>
+      <c r="L40" s="60">
+        <v>1</v>
+      </c>
+      <c r="M40" s="60">
+        <v>1</v>
+      </c>
+      <c r="N40" s="65"/>
+      <c r="O40" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P40" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40" s="55">
+        <v>89.315765088905593</v>
+      </c>
+      <c r="R40" s="55">
+        <v>6.0401475375966394</v>
+      </c>
+      <c r="S40" s="57"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="38">
+        <v>20241107</v>
+      </c>
+      <c r="C41" s="38">
+        <v>830</v>
+      </c>
+      <c r="D41" s="38">
+        <v>48</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="38">
+        <v>4</v>
+      </c>
+      <c r="H41" s="38">
+        <v>16</v>
+      </c>
+      <c r="I41" s="38">
+        <v>3</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="51"/>
+      <c r="L41" s="60">
+        <v>1</v>
+      </c>
+      <c r="M41" s="60">
+        <v>1</v>
+      </c>
+      <c r="N41" s="65"/>
+      <c r="O41" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P41" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="55">
+        <v>88.158740295517177</v>
+      </c>
+      <c r="R41" s="55">
+        <v>5.4588112859612137</v>
+      </c>
+      <c r="S41" s="57"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="40">
+        <v>20241107</v>
+      </c>
+      <c r="C42" s="40">
+        <v>1304</v>
+      </c>
+      <c r="D42" s="40">
+        <v>77</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="40">
+        <v>5</v>
+      </c>
+      <c r="H42" s="40">
+        <v>7</v>
+      </c>
+      <c r="I42" s="40">
+        <v>37</v>
+      </c>
+      <c r="J42" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="52"/>
+      <c r="L42" s="60">
+        <v>1</v>
+      </c>
+      <c r="M42" s="60">
+        <v>1</v>
+      </c>
+      <c r="N42" s="65"/>
+      <c r="O42" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P42" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="55">
+        <v>78.778575006260979</v>
+      </c>
+      <c r="R42" s="55">
+        <v>4.9434875757202894</v>
+      </c>
+      <c r="S42" s="57"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="40">
+        <v>20241107</v>
+      </c>
+      <c r="C43" s="40">
+        <v>1304</v>
+      </c>
+      <c r="D43" s="40">
+        <v>77</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="40">
+        <v>5</v>
+      </c>
+      <c r="H43" s="40">
+        <v>13</v>
+      </c>
+      <c r="I43" s="40">
+        <v>3</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="60">
+        <v>1</v>
+      </c>
+      <c r="M43" s="60">
+        <v>1</v>
+      </c>
+      <c r="N43" s="65"/>
+      <c r="O43" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P43" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="55">
+        <v>78.671136989732034</v>
+      </c>
+      <c r="R43" s="55">
+        <v>4.8487276372668955</v>
+      </c>
+      <c r="S43" s="57"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="40">
+        <v>20241107</v>
+      </c>
+      <c r="C44" s="40">
+        <v>1304</v>
+      </c>
+      <c r="D44" s="40">
+        <v>77</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="40">
+        <v>5</v>
+      </c>
+      <c r="H44" s="40">
+        <v>13</v>
+      </c>
+      <c r="I44" s="40">
+        <v>3</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="60">
+        <v>1</v>
+      </c>
+      <c r="M44" s="60">
+        <v>1</v>
+      </c>
+      <c r="N44" s="65"/>
+      <c r="O44" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P44" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q44" s="55">
+        <v>78.481054345103942</v>
+      </c>
+      <c r="R44" s="55">
+        <v>4.6389781105779218</v>
+      </c>
+      <c r="S44" s="57"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="38">
+        <v>20241107</v>
+      </c>
+      <c r="C45" s="38">
+        <v>1033</v>
+      </c>
+      <c r="D45" s="38">
+        <v>1593</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="38">
+        <v>10</v>
+      </c>
+      <c r="H45" s="38">
+        <v>1</v>
+      </c>
+      <c r="I45" s="38">
+        <v>500</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="51"/>
+      <c r="L45" s="60">
+        <v>1</v>
+      </c>
+      <c r="M45" s="60">
+        <v>1</v>
+      </c>
+      <c r="N45" s="65"/>
+      <c r="O45" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P45" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" s="55">
+        <v>48.494828449787128</v>
+      </c>
+      <c r="R45" s="55">
+        <v>21.439169895477864</v>
+      </c>
+      <c r="S45" s="57"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="38">
+        <v>20241107</v>
+      </c>
+      <c r="C46" s="38">
+        <v>1033</v>
+      </c>
+      <c r="D46" s="38">
+        <v>1593</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="38">
+        <v>10</v>
+      </c>
+      <c r="H46" s="45">
+        <v>1</v>
+      </c>
+      <c r="I46" s="38">
+        <v>500</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="60">
+        <v>1</v>
+      </c>
+      <c r="M46" s="60">
+        <v>1</v>
+      </c>
+      <c r="N46" s="65"/>
+      <c r="O46" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P46" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q46" s="55">
+        <v>48.139456548960673</v>
+      </c>
+      <c r="R46" s="55">
+        <v>21.028188589376629</v>
+      </c>
+      <c r="S46" s="57"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="38">
+        <v>20241107</v>
+      </c>
+      <c r="C47" s="38">
+        <v>1033</v>
+      </c>
+      <c r="D47" s="38">
+        <v>1593</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="38">
+        <v>10</v>
+      </c>
+      <c r="H47" s="38">
+        <v>6</v>
+      </c>
+      <c r="I47" s="38">
+        <v>93</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="51"/>
+      <c r="L47" s="60">
+        <v>1</v>
+      </c>
+      <c r="M47" s="60">
+        <v>1</v>
+      </c>
+      <c r="N47" s="65"/>
+      <c r="O47" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P47" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q47" s="55">
+        <v>54.158740295517148</v>
+      </c>
+      <c r="R47" s="55">
+        <v>12.588165756567085</v>
+      </c>
+      <c r="S47" s="57"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="38">
+        <v>20241107</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1033</v>
+      </c>
+      <c r="D48" s="38">
+        <v>1593</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="38">
+        <v>10</v>
+      </c>
+      <c r="H48" s="38">
+        <v>8</v>
+      </c>
+      <c r="I48" s="38">
+        <v>57</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="51"/>
+      <c r="L48" s="60">
+        <v>1</v>
+      </c>
+      <c r="M48" s="60">
+        <v>1</v>
+      </c>
+      <c r="N48" s="65"/>
+      <c r="O48" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P48" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q48" s="55">
+        <v>61.789594290007514</v>
+      </c>
+      <c r="R48" s="55">
+        <v>7.4902940114564363</v>
+      </c>
+      <c r="S48" s="57"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="38">
+        <v>20241107</v>
+      </c>
+      <c r="C49" s="38">
+        <v>1033</v>
+      </c>
+      <c r="D49" s="38">
+        <v>1593</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="38">
+        <v>10</v>
+      </c>
+      <c r="H49" s="38">
+        <v>19</v>
+      </c>
+      <c r="I49" s="38">
+        <v>4</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="51"/>
+      <c r="L49" s="60">
+        <v>1</v>
+      </c>
+      <c r="M49" s="60">
+        <v>1</v>
+      </c>
+      <c r="N49" s="65"/>
+      <c r="O49" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P49" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q49" s="55">
+        <v>70.957638367142522</v>
+      </c>
+      <c r="R49" s="55">
+        <v>4.7486441067655578</v>
+      </c>
+      <c r="S49" s="57"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="40">
+        <v>20241108</v>
+      </c>
+      <c r="C50" s="40">
+        <v>1750</v>
+      </c>
+      <c r="D50" s="40">
+        <v>452</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="40">
+        <v>11</v>
+      </c>
+      <c r="H50" s="40">
+        <v>1</v>
+      </c>
+      <c r="I50" s="40">
+        <v>450</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="52"/>
+      <c r="L50" s="60">
+        <v>1</v>
+      </c>
+      <c r="M50" s="60">
+        <v>1</v>
+      </c>
+      <c r="N50" s="65"/>
+      <c r="O50" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P50" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q50" s="55">
+        <v>46.679401452541939</v>
+      </c>
+      <c r="R50" s="55">
+        <v>21.348668830662827</v>
+      </c>
+      <c r="S50" s="57"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="40">
+        <v>20241108</v>
+      </c>
+      <c r="C51" s="40">
+        <v>1750</v>
+      </c>
+      <c r="D51" s="40">
+        <v>452</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="40">
+        <v>11</v>
+      </c>
+      <c r="H51" s="40">
+        <v>5</v>
+      </c>
+      <c r="I51" s="40">
+        <v>70</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="52"/>
+      <c r="L51" s="60">
+        <v>1</v>
+      </c>
+      <c r="M51" s="60">
+        <v>1</v>
+      </c>
+      <c r="N51" s="65"/>
+      <c r="O51" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P51" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q51" s="55">
+        <v>57.155985474580511</v>
+      </c>
+      <c r="R51" s="55">
+        <v>8.3356804286698569</v>
+      </c>
+      <c r="S51" s="57"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="40">
+        <v>20241108</v>
+      </c>
+      <c r="C52" s="40">
+        <v>1750</v>
+      </c>
+      <c r="D52" s="40">
+        <v>452</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="40">
+        <v>11</v>
+      </c>
+      <c r="H52" s="40">
+        <v>11</v>
+      </c>
+      <c r="I52" s="40">
+        <v>30</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" s="52"/>
+      <c r="L52" s="60">
+        <v>1</v>
+      </c>
+      <c r="M52" s="60">
+        <v>1</v>
+      </c>
+      <c r="N52" s="65"/>
+      <c r="O52" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P52" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q52" s="55">
+        <v>73.461770598547474</v>
+      </c>
+      <c r="R52" s="55">
+        <v>4.4430699232136046</v>
+      </c>
+      <c r="S52" s="57"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="40">
+        <v>20241108</v>
+      </c>
+      <c r="C53" s="40">
+        <v>1750</v>
+      </c>
+      <c r="D53" s="40">
+        <v>452</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="40">
+        <v>11</v>
+      </c>
+      <c r="H53" s="40">
+        <v>11</v>
+      </c>
+      <c r="I53" s="40">
+        <v>30</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="60">
+        <v>1</v>
+      </c>
+      <c r="M53" s="60">
+        <v>1</v>
+      </c>
+      <c r="N53" s="65"/>
+      <c r="O53" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P53" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q53" s="55">
+        <v>73.172514400200356</v>
+      </c>
+      <c r="R53" s="55">
+        <v>4.1215249635178202</v>
+      </c>
+      <c r="S53" s="57"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="40">
+        <v>20241108</v>
+      </c>
+      <c r="C54" s="40">
+        <v>1750</v>
+      </c>
+      <c r="D54" s="40">
+        <v>452</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="40">
+        <v>11</v>
+      </c>
+      <c r="H54" s="40">
+        <v>21</v>
+      </c>
+      <c r="I54" s="40">
+        <v>3</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="52"/>
+      <c r="L54" s="60">
+        <v>1</v>
+      </c>
+      <c r="M54" s="60">
+        <v>1</v>
+      </c>
+      <c r="N54" s="65"/>
+      <c r="O54" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P54" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54" s="55">
+        <v>74.985186576508895</v>
+      </c>
+      <c r="R54" s="55">
+        <v>4.7784562222340412</v>
+      </c>
+      <c r="S54" s="57"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C55" s="39">
+        <v>58</v>
+      </c>
+      <c r="D55" s="38">
+        <v>205</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="38">
+        <v>12</v>
+      </c>
+      <c r="H55" s="38">
+        <v>2</v>
+      </c>
+      <c r="I55" s="38">
+        <v>195</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="51"/>
+      <c r="L55" s="60">
+        <v>1</v>
+      </c>
+      <c r="M55" s="60">
+        <v>1</v>
+      </c>
+      <c r="N55" s="65"/>
+      <c r="O55" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P55" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q55" s="55">
+        <v>48.42320310543451</v>
+      </c>
+      <c r="R55" s="55">
+        <v>12.07071260950698</v>
+      </c>
+      <c r="S55" s="57"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C56" s="39">
+        <v>58</v>
+      </c>
+      <c r="D56" s="38">
+        <v>205</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="38">
+        <v>12</v>
+      </c>
+      <c r="H56" s="38">
+        <v>7</v>
+      </c>
+      <c r="I56" s="38">
+        <v>100</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56" s="60">
+        <v>4</v>
+      </c>
+      <c r="M56" s="60">
+        <v>3</v>
+      </c>
+      <c r="N56" s="65"/>
+      <c r="O56" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P56" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q56" s="56">
+        <v>71.180778863010275</v>
+      </c>
+      <c r="R56" s="55">
+        <v>9.2204614270380567</v>
+      </c>
+      <c r="S56" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C57" s="39">
+        <v>58</v>
+      </c>
+      <c r="D57" s="38">
+        <v>205</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="38">
+        <v>12</v>
+      </c>
+      <c r="H57" s="38">
+        <v>16</v>
+      </c>
+      <c r="I57" s="38">
+        <v>25</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" s="60">
+        <v>4</v>
+      </c>
+      <c r="M57" s="60">
+        <v>3</v>
+      </c>
+      <c r="N57" s="65"/>
+      <c r="O57" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P57" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q57" s="56">
+        <v>88.792349110944158</v>
+      </c>
+      <c r="R57" s="55">
+        <v>4.2056377178753266</v>
+      </c>
+      <c r="S57" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="38">
+        <v>20240909</v>
+      </c>
+      <c r="C58" s="39">
+        <v>58</v>
+      </c>
+      <c r="D58" s="38">
+        <v>205</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="38">
+        <v>12</v>
+      </c>
+      <c r="H58" s="38">
+        <v>23</v>
+      </c>
+      <c r="I58" s="38">
+        <v>3</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="51"/>
+      <c r="L58" s="60">
+        <v>1</v>
+      </c>
+      <c r="M58" s="60">
+        <v>1</v>
+      </c>
+      <c r="N58" s="65"/>
+      <c r="O58" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P58" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q58" s="55">
+        <v>75.379125970448285</v>
+      </c>
+      <c r="R58" s="55">
+        <v>4.1151366530602873</v>
+      </c>
+      <c r="S58" s="57"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C59" s="41">
+        <v>338</v>
+      </c>
+      <c r="D59" s="40">
+        <v>122</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="40">
+        <v>15</v>
+      </c>
+      <c r="H59" s="40">
+        <v>3</v>
+      </c>
+      <c r="I59" s="40">
+        <v>100</v>
+      </c>
+      <c r="J59" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="52"/>
+      <c r="L59" s="60">
+        <v>1</v>
+      </c>
+      <c r="M59" s="60">
+        <v>1</v>
+      </c>
+      <c r="N59" s="65"/>
+      <c r="O59" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P59" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q59" s="55">
+        <v>58.965902829952419</v>
+      </c>
+      <c r="R59" s="55">
+        <v>10.782403333904664</v>
+      </c>
+      <c r="S59" s="57"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C60" s="41">
+        <v>338</v>
+      </c>
+      <c r="D60" s="40">
+        <v>122</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="40">
+        <v>15</v>
+      </c>
+      <c r="H60" s="40">
+        <v>14</v>
+      </c>
+      <c r="I60" s="40">
+        <v>20</v>
+      </c>
+      <c r="J60" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="52"/>
+      <c r="L60" s="60">
+        <v>1</v>
+      </c>
+      <c r="M60" s="60">
+        <v>1</v>
+      </c>
+      <c r="N60" s="65"/>
+      <c r="O60" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P60" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q60" s="55">
+        <v>76.439732031054348</v>
+      </c>
+      <c r="R60" s="55">
+        <v>5.1351368894462528</v>
+      </c>
+      <c r="S60" s="57"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C61" s="41">
+        <v>338</v>
+      </c>
+      <c r="D61" s="40">
+        <v>122</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="40">
+        <v>15</v>
+      </c>
+      <c r="H61" s="40">
+        <v>18</v>
+      </c>
+      <c r="I61" s="40">
+        <v>3</v>
+      </c>
+      <c r="J61" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" s="52"/>
+      <c r="L61" s="60">
+        <v>1</v>
+      </c>
+      <c r="M61" s="60">
+        <v>1</v>
+      </c>
+      <c r="N61" s="65"/>
+      <c r="O61" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P61" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q61" s="55">
+        <v>76.883258201853252</v>
+      </c>
+      <c r="R61" s="55">
+        <v>4.6251367712532696</v>
+      </c>
+      <c r="S61" s="57"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C62" s="38">
+        <v>630</v>
+      </c>
+      <c r="D62" s="38">
+        <v>139</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="38">
+        <v>16</v>
+      </c>
+      <c r="H62" s="38">
+        <v>3</v>
+      </c>
+      <c r="I62" s="38">
+        <v>100</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="51"/>
+      <c r="L62" s="60">
+        <v>1</v>
+      </c>
+      <c r="M62" s="60">
+        <v>1</v>
+      </c>
+      <c r="N62" s="65"/>
+      <c r="O62" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P62" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q62" s="55">
+        <v>58.470035061357386</v>
+      </c>
+      <c r="R62" s="55">
+        <v>10.505576547411607</v>
+      </c>
+      <c r="S62" s="57"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C63" s="38">
+        <v>630</v>
+      </c>
+      <c r="D63" s="38">
+        <v>139</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="38">
+        <v>16</v>
+      </c>
+      <c r="H63" s="38">
+        <v>13</v>
+      </c>
+      <c r="I63" s="38">
+        <v>20</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="51"/>
+      <c r="L63" s="60">
+        <v>1</v>
+      </c>
+      <c r="M63" s="60">
+        <v>1</v>
+      </c>
+      <c r="N63" s="65"/>
+      <c r="O63" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P63" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q63" s="55">
+        <v>78.040282995241682</v>
+      </c>
+      <c r="R63" s="55">
+        <v>4.9807527200558939</v>
+      </c>
+      <c r="S63" s="57"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C64" s="38">
+        <v>630</v>
+      </c>
+      <c r="D64" s="38">
+        <v>139</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="38">
+        <v>16</v>
+      </c>
+      <c r="H64" s="38">
+        <v>19</v>
+      </c>
+      <c r="I64" s="38">
+        <v>3</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" s="51"/>
+      <c r="L64" s="60">
+        <v>1</v>
+      </c>
+      <c r="M64" s="60">
+        <v>1</v>
+      </c>
+      <c r="N64" s="65"/>
+      <c r="O64" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P64" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q64" s="55">
+        <v>76.588492361632873</v>
+      </c>
+      <c r="R64" s="55">
+        <v>4.918999052299748</v>
+      </c>
+      <c r="S64" s="57"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C65" s="40">
+        <v>933</v>
+      </c>
+      <c r="D65" s="40">
+        <v>88</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="40">
+        <v>17</v>
+      </c>
+      <c r="H65" s="40">
+        <v>2</v>
+      </c>
+      <c r="I65" s="40">
+        <v>88</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K65" s="52"/>
+      <c r="L65" s="60">
+        <v>1</v>
+      </c>
+      <c r="M65" s="60">
+        <v>1</v>
+      </c>
+      <c r="N65" s="65"/>
+      <c r="O65" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P65" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q65" s="55">
+        <v>64.602266466316067</v>
+      </c>
+      <c r="R65" s="55">
+        <v>11.879063295781016</v>
+      </c>
+      <c r="S65" s="57"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C66" s="40">
+        <v>933</v>
+      </c>
+      <c r="D66" s="40">
+        <v>88</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" s="40">
+        <v>17</v>
+      </c>
+      <c r="H66" s="40">
+        <v>9</v>
+      </c>
+      <c r="I66" s="40">
+        <v>35</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K66" s="52"/>
+      <c r="L66" s="60">
+        <v>1</v>
+      </c>
+      <c r="M66" s="60">
+        <v>1</v>
+      </c>
+      <c r="N66" s="65"/>
+      <c r="O66" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P66" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q66" s="55">
+        <v>77.811632857500641</v>
+      </c>
+      <c r="R66" s="55">
+        <v>4.4377463311656609</v>
+      </c>
+      <c r="S66" s="57"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C67" s="40">
+        <v>933</v>
+      </c>
+      <c r="D67" s="40">
+        <v>88</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="40">
+        <v>17</v>
+      </c>
+      <c r="H67" s="40">
+        <v>18</v>
+      </c>
+      <c r="I67" s="40">
+        <v>3</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="52"/>
+      <c r="L67" s="60">
+        <v>1</v>
+      </c>
+      <c r="M67" s="60">
+        <v>1</v>
+      </c>
+      <c r="N67" s="65"/>
+      <c r="O67" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P67" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q67" s="55">
+        <v>77.401164537941412</v>
+      </c>
+      <c r="R67" s="55">
+        <v>5.0041765250668435</v>
+      </c>
+      <c r="S67" s="57"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="40">
+        <v>20240910</v>
+      </c>
+      <c r="C68" s="40">
+        <v>933</v>
+      </c>
+      <c r="D68" s="40">
+        <v>88</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="40">
+        <v>17</v>
+      </c>
+      <c r="H68" s="40">
+        <v>18</v>
+      </c>
+      <c r="I68" s="40">
+        <v>3</v>
+      </c>
+      <c r="J68" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="60">
+        <v>1</v>
+      </c>
+      <c r="M68" s="60">
+        <v>1</v>
+      </c>
+      <c r="N68" s="65"/>
+      <c r="O68" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P68" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q68" s="55">
+        <v>79.17251440020037</v>
+      </c>
+      <c r="R68" s="55">
+        <v>5.000982369838078</v>
+      </c>
+      <c r="S68" s="57"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C69" s="38">
+        <v>1245</v>
+      </c>
+      <c r="D69" s="38">
+        <v>60</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="38">
+        <v>18</v>
+      </c>
+      <c r="H69" s="38">
+        <v>1</v>
+      </c>
+      <c r="I69" s="38">
+        <v>60</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K69" s="51"/>
+      <c r="L69" s="60">
+        <v>1</v>
+      </c>
+      <c r="M69" s="60">
+        <v>1</v>
+      </c>
+      <c r="N69" s="65"/>
+      <c r="O69" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P69" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q69" s="55">
+        <v>74.326784372652142</v>
+      </c>
+      <c r="R69" s="55">
+        <v>10.460858374208881</v>
+      </c>
+      <c r="S69" s="57"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C70" s="38">
+        <v>1245</v>
+      </c>
+      <c r="D70" s="38">
+        <v>60</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="38">
+        <v>18</v>
+      </c>
+      <c r="H70" s="38">
+        <v>11</v>
+      </c>
+      <c r="I70" s="38">
+        <v>28</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="51"/>
+      <c r="L70" s="60">
+        <v>1</v>
+      </c>
+      <c r="M70" s="60">
+        <v>1</v>
+      </c>
+      <c r="N70" s="65"/>
+      <c r="O70" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P70" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q70" s="55">
+        <v>78.043037816178312</v>
+      </c>
+      <c r="R70" s="55">
+        <v>4.8977046841079748</v>
+      </c>
+      <c r="S70" s="57"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="38">
+        <v>20240910</v>
+      </c>
+      <c r="C71" s="38">
+        <v>1245</v>
+      </c>
+      <c r="D71" s="38">
+        <v>60</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="38">
+        <v>18</v>
+      </c>
+      <c r="H71" s="38">
+        <v>19</v>
+      </c>
+      <c r="I71" s="38">
+        <v>3</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" s="51"/>
+      <c r="L71" s="60">
+        <v>1</v>
+      </c>
+      <c r="M71" s="60">
+        <v>1</v>
+      </c>
+      <c r="N71" s="65"/>
+      <c r="O71" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P71" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q71" s="55">
+        <v>78.629814675682454</v>
+      </c>
+      <c r="R71" s="55">
+        <v>4.2610030751739378</v>
+      </c>
+      <c r="S71" s="57"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="40">
+        <v>20240911</v>
+      </c>
+      <c r="C72" s="40">
+        <v>255</v>
+      </c>
+      <c r="D72" s="40">
+        <v>40</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="40">
+        <v>19</v>
+      </c>
+      <c r="H72" s="40">
+        <v>4</v>
+      </c>
+      <c r="I72" s="40">
+        <v>20</v>
+      </c>
+      <c r="J72" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="52"/>
+      <c r="L72" s="60">
+        <v>1</v>
+      </c>
+      <c r="M72" s="60">
+        <v>1</v>
+      </c>
+      <c r="N72" s="65"/>
+      <c r="O72" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P72" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q72" s="55">
+        <v>84.880503380916608</v>
+      </c>
+      <c r="R72" s="55">
+        <v>4.9924646225613678</v>
+      </c>
+      <c r="S72" s="57"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="40">
+        <v>20240911</v>
+      </c>
+      <c r="C73" s="40">
+        <v>255</v>
+      </c>
+      <c r="D73" s="40">
+        <v>40</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="40">
+        <v>19</v>
+      </c>
+      <c r="H73" s="40">
+        <v>7</v>
+      </c>
+      <c r="I73" s="40">
+        <v>4</v>
+      </c>
+      <c r="J73" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" s="52"/>
+      <c r="L73" s="60">
+        <v>1</v>
+      </c>
+      <c r="M73" s="60">
+        <v>1</v>
+      </c>
+      <c r="N73" s="65"/>
+      <c r="O73" s="71">
+        <v>45646</v>
+      </c>
+      <c r="P73" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q73" s="55">
+        <v>85.348822940145254</v>
+      </c>
+      <c r="R73" s="55">
+        <v>5.0297297668969723</v>
+      </c>
+      <c r="S73" s="57"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:I2 A39:B39 F39 J39 A40:E54 A55:B62 G36:J38 A3:E38 G3:I35 G40:J54">
+    <cfRule type="beginsWith" dxfId="82" priority="27" operator="beginsWith" text="r">
+      <formula>LEFT(A2,LEN("r"))="r"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="81" priority="28" operator="beginsWith" text="f">
+      <formula>LEFT(A2,LEN("f"))="f"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="80" priority="29" operator="beginsWith" text="n">
+      <formula>LEFT(A2,LEN("n"))="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="79" priority="30" operator="beginsWith" text="y">
+      <formula>LEFT(A2,LEN("y"))="y"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="78" priority="31">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:E73 G62:J73">
+    <cfRule type="beginsWith" dxfId="77" priority="11" operator="beginsWith" text="r">
+      <formula>LEFT(A62,LEN("r"))="r"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:E73 G63:J73">
+    <cfRule type="beginsWith" dxfId="76" priority="12" operator="beginsWith" text="f">
+      <formula>LEFT(A63,LEN("f"))="f"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="75" priority="13" operator="beginsWith" text="n">
+      <formula>LEFT(A63,LEN("n"))="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="74" priority="14" operator="beginsWith" text="y">
+      <formula>LEFT(A63,LEN("y"))="y"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="73" priority="15">
+      <formula>LEN(TRIM(A63))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:E61 G55:J61">
+    <cfRule type="beginsWith" dxfId="72" priority="16" operator="beginsWith" text="r">
+      <formula>LEFT(C55,LEN("r"))="r"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:E62 G55:J62">
+    <cfRule type="beginsWith" dxfId="71" priority="17" operator="beginsWith" text="f">
+      <formula>LEFT(C55,LEN("f"))="f"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="70" priority="18" operator="beginsWith" text="n">
+      <formula>LEFT(C55,LEN("n"))="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="69" priority="19" operator="beginsWith" text="y">
+      <formula>LEFT(C55,LEN("y"))="y"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="68" priority="20">
+      <formula>LEN(TRIM(C55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J35">
+    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="25" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="62" priority="26">
+      <formula>LEN(TRIM(J2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F38">
+    <cfRule type="beginsWith" dxfId="61" priority="6" operator="beginsWith" text="r">
+      <formula>LEFT(F3,LEN("r"))="r"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="60" priority="7" operator="beginsWith" text="f">
+      <formula>LEFT(F3,LEN("f"))="f"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="8" operator="beginsWith" text="n">
+      <formula>LEFT(F3,LEN("n"))="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="58" priority="9" operator="beginsWith" text="y">
+      <formula>LEFT(F3,LEN("y"))="y"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="57" priority="10">
+      <formula>LEN(TRIM(F3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F73">
+    <cfRule type="beginsWith" dxfId="56" priority="1" operator="beginsWith" text="r">
+      <formula>LEFT(F40,LEN("r"))="r"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="55" priority="2" operator="beginsWith" text="f">
+      <formula>LEFT(F40,LEN("f"))="f"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="54" priority="3" operator="beginsWith" text="n">
+      <formula>LEFT(F40,LEN("n"))="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="53" priority="4" operator="beginsWith" text="y">
+      <formula>LEFT(F40,LEN("y"))="y"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="52" priority="5">
+      <formula>LEN(TRIM(F40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA71B0DD-C276-446E-91EF-F6F57EDEA295}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1433,60 +5705,60 @@
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="80" customFormat="1" ht="41.4">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:23" s="70" customFormat="1" ht="41.4">
+      <c r="A1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="P1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="69" t="s">
         <v>92</v>
       </c>
       <c r="T1" s="50" t="s">
@@ -1527,7 +5799,7 @@
       <c r="J2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="72" t="s">
         <v>97</v>
       </c>
       <c r="L2" s="59">
@@ -1536,8 +5808,8 @@
       <c r="M2" s="59">
         <v>1</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="81">
+      <c r="N2" s="65"/>
+      <c r="O2" s="71">
         <v>45646</v>
       </c>
       <c r="P2" s="59" t="s">
@@ -1599,8 +5871,8 @@
       <c r="M3" s="59">
         <v>1</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="81">
+      <c r="N3" s="65"/>
+      <c r="O3" s="71">
         <v>45646</v>
       </c>
       <c r="P3" s="59" t="s">
@@ -1662,8 +5934,8 @@
       <c r="M4" s="59">
         <v>1</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="81">
+      <c r="N4" s="65"/>
+      <c r="O4" s="71">
         <v>45646</v>
       </c>
       <c r="P4" s="59" t="s">
@@ -1725,8 +5997,8 @@
       <c r="M5" s="59">
         <v>1</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="81">
+      <c r="N5" s="65"/>
+      <c r="O5" s="71">
         <v>45646</v>
       </c>
       <c r="P5" s="59" t="s">
@@ -1790,8 +6062,8 @@
       <c r="M6" s="59">
         <v>1</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="81">
+      <c r="N6" s="65"/>
+      <c r="O6" s="71">
         <v>45646</v>
       </c>
       <c r="P6" s="59" t="s">
@@ -1846,7 +6118,7 @@
       <c r="J7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="83" t="s">
+      <c r="K7" s="73" t="s">
         <v>99</v>
       </c>
       <c r="L7" s="59">
@@ -1855,8 +6127,8 @@
       <c r="M7" s="59">
         <v>1</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="81">
+      <c r="N7" s="65"/>
+      <c r="O7" s="71">
         <v>45646</v>
       </c>
       <c r="P7" s="59" t="s">
@@ -1918,8 +6190,8 @@
       <c r="M8" s="59">
         <v>1</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="81">
+      <c r="N8" s="65"/>
+      <c r="O8" s="71">
         <v>45646</v>
       </c>
       <c r="P8" s="59" t="s">
@@ -1981,8 +6253,8 @@
       <c r="M9" s="59">
         <v>1</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="81">
+      <c r="N9" s="65"/>
+      <c r="O9" s="71">
         <v>45646</v>
       </c>
       <c r="P9" s="59" t="s">
@@ -2044,8 +6316,8 @@
       <c r="M10" s="59">
         <v>1</v>
       </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="81">
+      <c r="N10" s="65"/>
+      <c r="O10" s="71">
         <v>45646</v>
       </c>
       <c r="P10" s="59" t="s">
@@ -2109,8 +6381,8 @@
       <c r="M11" s="59">
         <v>1</v>
       </c>
-      <c r="N11" s="75"/>
-      <c r="O11" s="81">
+      <c r="N11" s="65"/>
+      <c r="O11" s="71">
         <v>45646</v>
       </c>
       <c r="P11" s="59" t="s">
@@ -2172,8 +6444,8 @@
       <c r="M12" s="59">
         <v>1</v>
       </c>
-      <c r="N12" s="75"/>
-      <c r="O12" s="81">
+      <c r="N12" s="65"/>
+      <c r="O12" s="71">
         <v>45646</v>
       </c>
       <c r="P12" s="59" t="s">
@@ -2235,8 +6507,8 @@
       <c r="M13" s="59">
         <v>1</v>
       </c>
-      <c r="N13" s="75"/>
-      <c r="O13" s="81">
+      <c r="N13" s="65"/>
+      <c r="O13" s="71">
         <v>45646</v>
       </c>
       <c r="P13" s="59" t="s">
@@ -2298,8 +6570,8 @@
       <c r="M14" s="59">
         <v>1</v>
       </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="81">
+      <c r="N14" s="65"/>
+      <c r="O14" s="71">
         <v>45646</v>
       </c>
       <c r="P14" s="59" t="s">
@@ -2363,8 +6635,8 @@
       <c r="M15" s="59">
         <v>1</v>
       </c>
-      <c r="N15" s="75"/>
-      <c r="O15" s="81">
+      <c r="N15" s="65"/>
+      <c r="O15" s="71">
         <v>45646</v>
       </c>
       <c r="P15" s="59" t="s">
@@ -2426,8 +6698,8 @@
       <c r="M16" s="59">
         <v>1</v>
       </c>
-      <c r="N16" s="75"/>
-      <c r="O16" s="81">
+      <c r="N16" s="65"/>
+      <c r="O16" s="71">
         <v>45646</v>
       </c>
       <c r="P16" s="59" t="s">
@@ -2489,8 +6761,8 @@
       <c r="M17" s="59">
         <v>1</v>
       </c>
-      <c r="N17" s="75"/>
-      <c r="O17" s="81">
+      <c r="N17" s="65"/>
+      <c r="O17" s="71">
         <v>45646</v>
       </c>
       <c r="P17" s="59" t="s">
@@ -2552,8 +6824,8 @@
       <c r="M18" s="59">
         <v>1</v>
       </c>
-      <c r="N18" s="75"/>
-      <c r="O18" s="81">
+      <c r="N18" s="65"/>
+      <c r="O18" s="71">
         <v>45646</v>
       </c>
       <c r="P18" s="59" t="s">
@@ -2615,8 +6887,8 @@
       <c r="M19" s="59">
         <v>1</v>
       </c>
-      <c r="N19" s="75"/>
-      <c r="O19" s="81">
+      <c r="N19" s="65"/>
+      <c r="O19" s="71">
         <v>45646</v>
       </c>
       <c r="P19" s="59" t="s">
@@ -2678,8 +6950,8 @@
       <c r="M20" s="59">
         <v>1</v>
       </c>
-      <c r="N20" s="75"/>
-      <c r="O20" s="81">
+      <c r="N20" s="65"/>
+      <c r="O20" s="71">
         <v>45646</v>
       </c>
       <c r="P20" s="59" t="s">
@@ -2741,8 +7013,8 @@
       <c r="M21" s="59">
         <v>1</v>
       </c>
-      <c r="N21" s="75"/>
-      <c r="O21" s="81">
+      <c r="N21" s="65"/>
+      <c r="O21" s="71">
         <v>45646</v>
       </c>
       <c r="P21" s="59" t="s">
@@ -2806,8 +7078,8 @@
       <c r="M22" s="59">
         <v>1</v>
       </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="81">
+      <c r="N22" s="65"/>
+      <c r="O22" s="71">
         <v>45646</v>
       </c>
       <c r="P22" s="59" t="s">
@@ -2869,8 +7141,8 @@
       <c r="M23" s="59">
         <v>1</v>
       </c>
-      <c r="N23" s="75"/>
-      <c r="O23" s="81">
+      <c r="N23" s="65"/>
+      <c r="O23" s="71">
         <v>45646</v>
       </c>
       <c r="P23" s="59" t="s">
@@ -2932,8 +7204,8 @@
       <c r="M24" s="59">
         <v>1</v>
       </c>
-      <c r="N24" s="75"/>
-      <c r="O24" s="81">
+      <c r="N24" s="65"/>
+      <c r="O24" s="71">
         <v>45646</v>
       </c>
       <c r="P24" s="59" t="s">
@@ -2995,8 +7267,8 @@
       <c r="M25" s="59">
         <v>1</v>
       </c>
-      <c r="N25" s="75"/>
-      <c r="O25" s="81">
+      <c r="N25" s="65"/>
+      <c r="O25" s="71">
         <v>45646</v>
       </c>
       <c r="P25" s="59" t="s">
@@ -3058,8 +7330,8 @@
       <c r="M26" s="59">
         <v>1</v>
       </c>
-      <c r="N26" s="75"/>
-      <c r="O26" s="81">
+      <c r="N26" s="65"/>
+      <c r="O26" s="71">
         <v>45646</v>
       </c>
       <c r="P26" s="59" t="s">
@@ -3121,8 +7393,8 @@
       <c r="M27" s="59">
         <v>1</v>
       </c>
-      <c r="N27" s="75"/>
-      <c r="O27" s="81">
+      <c r="N27" s="65"/>
+      <c r="O27" s="71">
         <v>45646</v>
       </c>
       <c r="P27" s="59" t="s">
@@ -3184,8 +7456,8 @@
       <c r="M28" s="59">
         <v>1</v>
       </c>
-      <c r="N28" s="75"/>
-      <c r="O28" s="81">
+      <c r="N28" s="65"/>
+      <c r="O28" s="71">
         <v>45646</v>
       </c>
       <c r="P28" s="59" t="s">
@@ -3247,8 +7519,8 @@
       <c r="M29" s="59">
         <v>1</v>
       </c>
-      <c r="N29" s="75"/>
-      <c r="O29" s="81">
+      <c r="N29" s="65"/>
+      <c r="O29" s="71">
         <v>45646</v>
       </c>
       <c r="P29" s="59" t="s">
@@ -3310,8 +7582,8 @@
       <c r="M30" s="59">
         <v>1</v>
       </c>
-      <c r="N30" s="75"/>
-      <c r="O30" s="81">
+      <c r="N30" s="65"/>
+      <c r="O30" s="71">
         <v>45646</v>
       </c>
       <c r="P30" s="59" t="s">
@@ -3373,8 +7645,8 @@
       <c r="M31" s="59">
         <v>1</v>
       </c>
-      <c r="N31" s="75"/>
-      <c r="O31" s="81">
+      <c r="N31" s="65"/>
+      <c r="O31" s="71">
         <v>45646</v>
       </c>
       <c r="P31" s="59" t="s">
@@ -3436,8 +7708,8 @@
       <c r="M32" s="59">
         <v>1</v>
       </c>
-      <c r="N32" s="75"/>
-      <c r="O32" s="81">
+      <c r="N32" s="65"/>
+      <c r="O32" s="71">
         <v>45646</v>
       </c>
       <c r="P32" s="59" t="s">
@@ -3499,8 +7771,8 @@
       <c r="M33" s="59">
         <v>1</v>
       </c>
-      <c r="N33" s="75"/>
-      <c r="O33" s="81">
+      <c r="N33" s="65"/>
+      <c r="O33" s="71">
         <v>45646</v>
       </c>
       <c r="P33" s="59" t="s">
@@ -3562,8 +7834,8 @@
       <c r="M34" s="59">
         <v>1</v>
       </c>
-      <c r="N34" s="75"/>
-      <c r="O34" s="81">
+      <c r="N34" s="65"/>
+      <c r="O34" s="71">
         <v>45646</v>
       </c>
       <c r="P34" s="59" t="s">
@@ -3627,8 +7899,8 @@
       <c r="M35" s="59">
         <v>1</v>
       </c>
-      <c r="N35" s="75"/>
-      <c r="O35" s="81">
+      <c r="N35" s="65"/>
+      <c r="O35" s="71">
         <v>45646</v>
       </c>
       <c r="P35" s="59" t="s">
@@ -3690,8 +7962,8 @@
       <c r="M36" s="59">
         <v>1</v>
       </c>
-      <c r="N36" s="75"/>
-      <c r="O36" s="81">
+      <c r="N36" s="65"/>
+      <c r="O36" s="71">
         <v>45646</v>
       </c>
       <c r="P36" s="59" t="s">
@@ -3753,8 +8025,8 @@
       <c r="M37" s="59">
         <v>1</v>
       </c>
-      <c r="N37" s="75"/>
-      <c r="O37" s="81">
+      <c r="N37" s="65"/>
+      <c r="O37" s="71">
         <v>45646</v>
       </c>
       <c r="P37" s="59" t="s">
@@ -3816,8 +8088,8 @@
       <c r="M38" s="59">
         <v>1</v>
       </c>
-      <c r="N38" s="75"/>
-      <c r="O38" s="81">
+      <c r="N38" s="65"/>
+      <c r="O38" s="71">
         <v>45646</v>
       </c>
       <c r="P38" s="59" t="s">
@@ -3869,8 +8141,8 @@
       <c r="M39" s="59">
         <v>1</v>
       </c>
-      <c r="N39" s="75"/>
-      <c r="O39" s="81">
+      <c r="N39" s="65"/>
+      <c r="O39" s="71">
         <v>45646</v>
       </c>
       <c r="P39" s="59" t="s">
@@ -3932,8 +8204,8 @@
       <c r="M40" s="59">
         <v>1</v>
       </c>
-      <c r="N40" s="75"/>
-      <c r="O40" s="81">
+      <c r="N40" s="65"/>
+      <c r="O40" s="71">
         <v>45646</v>
       </c>
       <c r="P40" s="59" t="s">
@@ -3995,8 +8267,8 @@
       <c r="M41" s="59">
         <v>1</v>
       </c>
-      <c r="N41" s="75"/>
-      <c r="O41" s="81">
+      <c r="N41" s="65"/>
+      <c r="O41" s="71">
         <v>45646</v>
       </c>
       <c r="P41" s="59" t="s">
@@ -4058,8 +8330,8 @@
       <c r="M42" s="59">
         <v>1</v>
       </c>
-      <c r="N42" s="75"/>
-      <c r="O42" s="81">
+      <c r="N42" s="65"/>
+      <c r="O42" s="71">
         <v>45646</v>
       </c>
       <c r="P42" s="59" t="s">
@@ -4114,7 +8386,7 @@
       <c r="J43" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="83" t="s">
+      <c r="K43" s="73" t="s">
         <v>98</v>
       </c>
       <c r="L43" s="59">
@@ -4123,8 +8395,8 @@
       <c r="M43" s="59">
         <v>1</v>
       </c>
-      <c r="N43" s="75"/>
-      <c r="O43" s="81">
+      <c r="N43" s="65"/>
+      <c r="O43" s="71">
         <v>45646</v>
       </c>
       <c r="P43" s="59" t="s">
@@ -4188,8 +8460,8 @@
       <c r="M44" s="59">
         <v>1</v>
       </c>
-      <c r="N44" s="75"/>
-      <c r="O44" s="81">
+      <c r="N44" s="65"/>
+      <c r="O44" s="71">
         <v>45646</v>
       </c>
       <c r="P44" s="59" t="s">
@@ -4251,8 +8523,8 @@
       <c r="M45" s="59">
         <v>1</v>
       </c>
-      <c r="N45" s="75"/>
-      <c r="O45" s="81">
+      <c r="N45" s="65"/>
+      <c r="O45" s="71">
         <v>45646</v>
       </c>
       <c r="P45" s="59" t="s">
@@ -4316,8 +8588,8 @@
       <c r="M46" s="59">
         <v>1</v>
       </c>
-      <c r="N46" s="75"/>
-      <c r="O46" s="81">
+      <c r="N46" s="65"/>
+      <c r="O46" s="71">
         <v>45646</v>
       </c>
       <c r="P46" s="59" t="s">
@@ -4379,8 +8651,8 @@
       <c r="M47" s="59">
         <v>1</v>
       </c>
-      <c r="N47" s="75"/>
-      <c r="O47" s="81">
+      <c r="N47" s="65"/>
+      <c r="O47" s="71">
         <v>45646</v>
       </c>
       <c r="P47" s="59" t="s">
@@ -4442,8 +8714,8 @@
       <c r="M48" s="59">
         <v>1</v>
       </c>
-      <c r="N48" s="75"/>
-      <c r="O48" s="81">
+      <c r="N48" s="65"/>
+      <c r="O48" s="71">
         <v>45646</v>
       </c>
       <c r="P48" s="59" t="s">
@@ -4505,8 +8777,8 @@
       <c r="M49" s="59">
         <v>1</v>
       </c>
-      <c r="N49" s="75"/>
-      <c r="O49" s="81">
+      <c r="N49" s="65"/>
+      <c r="O49" s="71">
         <v>45646</v>
       </c>
       <c r="P49" s="59" t="s">
@@ -4568,8 +8840,8 @@
       <c r="M50" s="59">
         <v>1</v>
       </c>
-      <c r="N50" s="75"/>
-      <c r="O50" s="81">
+      <c r="N50" s="65"/>
+      <c r="O50" s="71">
         <v>45646</v>
       </c>
       <c r="P50" s="59" t="s">
@@ -4631,8 +8903,8 @@
       <c r="M51" s="59">
         <v>1</v>
       </c>
-      <c r="N51" s="75"/>
-      <c r="O51" s="81">
+      <c r="N51" s="65"/>
+      <c r="O51" s="71">
         <v>45646</v>
       </c>
       <c r="P51" s="59" t="s">
@@ -4694,8 +8966,8 @@
       <c r="M52" s="59">
         <v>1</v>
       </c>
-      <c r="N52" s="75"/>
-      <c r="O52" s="81">
+      <c r="N52" s="65"/>
+      <c r="O52" s="71">
         <v>45646</v>
       </c>
       <c r="P52" s="59" t="s">
@@ -4759,8 +9031,8 @@
       <c r="M53" s="59">
         <v>1</v>
       </c>
-      <c r="N53" s="75"/>
-      <c r="O53" s="81">
+      <c r="N53" s="65"/>
+      <c r="O53" s="71">
         <v>45646</v>
       </c>
       <c r="P53" s="59" t="s">
@@ -4822,8 +9094,8 @@
       <c r="M54" s="59">
         <v>1</v>
       </c>
-      <c r="N54" s="75"/>
-      <c r="O54" s="81">
+      <c r="N54" s="65"/>
+      <c r="O54" s="71">
         <v>45646</v>
       </c>
       <c r="P54" s="59" t="s">
@@ -4885,8 +9157,8 @@
       <c r="M55" s="59">
         <v>1</v>
       </c>
-      <c r="N55" s="75"/>
-      <c r="O55" s="81">
+      <c r="N55" s="65"/>
+      <c r="O55" s="71">
         <v>45646</v>
       </c>
       <c r="P55" s="59" t="s">
@@ -4950,8 +9222,8 @@
       <c r="M56" s="59">
         <v>3</v>
       </c>
-      <c r="N56" s="75"/>
-      <c r="O56" s="81">
+      <c r="N56" s="65"/>
+      <c r="O56" s="71">
         <v>45646</v>
       </c>
       <c r="P56" s="59" t="s">
@@ -5017,8 +9289,8 @@
       <c r="M57" s="59">
         <v>3</v>
       </c>
-      <c r="N57" s="75"/>
-      <c r="O57" s="81">
+      <c r="N57" s="65"/>
+      <c r="O57" s="71">
         <v>45646</v>
       </c>
       <c r="P57" s="59" t="s">
@@ -5082,8 +9354,8 @@
       <c r="M58" s="59">
         <v>1</v>
       </c>
-      <c r="N58" s="75"/>
-      <c r="O58" s="81">
+      <c r="N58" s="65"/>
+      <c r="O58" s="71">
         <v>45646</v>
       </c>
       <c r="P58" s="59" t="s">
@@ -5145,8 +9417,8 @@
       <c r="M59" s="59">
         <v>1</v>
       </c>
-      <c r="N59" s="75"/>
-      <c r="O59" s="81">
+      <c r="N59" s="65"/>
+      <c r="O59" s="71">
         <v>45646</v>
       </c>
       <c r="P59" s="59" t="s">
@@ -5208,8 +9480,8 @@
       <c r="M60" s="59">
         <v>1</v>
       </c>
-      <c r="N60" s="75"/>
-      <c r="O60" s="81">
+      <c r="N60" s="65"/>
+      <c r="O60" s="71">
         <v>45646</v>
       </c>
       <c r="P60" s="59" t="s">
@@ -5271,8 +9543,8 @@
       <c r="M61" s="59">
         <v>1</v>
       </c>
-      <c r="N61" s="75"/>
-      <c r="O61" s="81">
+      <c r="N61" s="65"/>
+      <c r="O61" s="71">
         <v>45646</v>
       </c>
       <c r="P61" s="59" t="s">
@@ -5334,8 +9606,8 @@
       <c r="M62" s="59">
         <v>1</v>
       </c>
-      <c r="N62" s="75"/>
-      <c r="O62" s="81">
+      <c r="N62" s="65"/>
+      <c r="O62" s="71">
         <v>45646</v>
       </c>
       <c r="P62" s="59" t="s">
@@ -5397,8 +9669,8 @@
       <c r="M63" s="59">
         <v>1</v>
       </c>
-      <c r="N63" s="75"/>
-      <c r="O63" s="81">
+      <c r="N63" s="65"/>
+      <c r="O63" s="71">
         <v>45646</v>
       </c>
       <c r="P63" s="59" t="s">
@@ -5460,8 +9732,8 @@
       <c r="M64" s="59">
         <v>1</v>
       </c>
-      <c r="N64" s="75"/>
-      <c r="O64" s="81">
+      <c r="N64" s="65"/>
+      <c r="O64" s="71">
         <v>45646</v>
       </c>
       <c r="P64" s="59" t="s">
@@ -5523,8 +9795,8 @@
       <c r="M65" s="59">
         <v>1</v>
       </c>
-      <c r="N65" s="75"/>
-      <c r="O65" s="81">
+      <c r="N65" s="65"/>
+      <c r="O65" s="71">
         <v>45646</v>
       </c>
       <c r="P65" s="59" t="s">
@@ -5586,8 +9858,8 @@
       <c r="M66" s="59">
         <v>1</v>
       </c>
-      <c r="N66" s="75"/>
-      <c r="O66" s="81">
+      <c r="N66" s="65"/>
+      <c r="O66" s="71">
         <v>45646</v>
       </c>
       <c r="P66" s="59" t="s">
@@ -5649,8 +9921,8 @@
       <c r="M67" s="59">
         <v>1</v>
       </c>
-      <c r="N67" s="75"/>
-      <c r="O67" s="81">
+      <c r="N67" s="65"/>
+      <c r="O67" s="71">
         <v>45646</v>
       </c>
       <c r="P67" s="59" t="s">
@@ -5714,8 +9986,8 @@
       <c r="M68" s="59">
         <v>1</v>
       </c>
-      <c r="N68" s="75"/>
-      <c r="O68" s="81">
+      <c r="N68" s="65"/>
+      <c r="O68" s="71">
         <v>45646</v>
       </c>
       <c r="P68" s="59" t="s">
@@ -5777,8 +10049,8 @@
       <c r="M69" s="59">
         <v>1</v>
       </c>
-      <c r="N69" s="75"/>
-      <c r="O69" s="81">
+      <c r="N69" s="65"/>
+      <c r="O69" s="71">
         <v>45646</v>
       </c>
       <c r="P69" s="59" t="s">
@@ -5840,8 +10112,8 @@
       <c r="M70" s="59">
         <v>1</v>
       </c>
-      <c r="N70" s="75"/>
-      <c r="O70" s="81">
+      <c r="N70" s="65"/>
+      <c r="O70" s="71">
         <v>45646</v>
       </c>
       <c r="P70" s="59" t="s">
@@ -5903,8 +10175,8 @@
       <c r="M71" s="59">
         <v>1</v>
       </c>
-      <c r="N71" s="75"/>
-      <c r="O71" s="81">
+      <c r="N71" s="65"/>
+      <c r="O71" s="71">
         <v>45646</v>
       </c>
       <c r="P71" s="59" t="s">
@@ -5966,8 +10238,8 @@
       <c r="M72" s="59">
         <v>1</v>
       </c>
-      <c r="N72" s="75"/>
-      <c r="O72" s="81">
+      <c r="N72" s="65"/>
+      <c r="O72" s="71">
         <v>45646</v>
       </c>
       <c r="P72" s="59" t="s">
@@ -6029,8 +10301,8 @@
       <c r="M73" s="59">
         <v>1</v>
       </c>
-      <c r="N73" s="75"/>
-      <c r="O73" s="81">
+      <c r="N73" s="65"/>
+      <c r="O73" s="71">
         <v>45646</v>
       </c>
       <c r="P73" s="59" t="s">
@@ -6168,7 +10440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1771EEBC-648F-9044-9B25-D2D8DDACED8B}">
   <dimension ref="A1:P75"/>
   <sheetViews>
@@ -9663,7 +13935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F4CF27-1BD4-FD4F-A156-E7362ECA9ABE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -9694,15 +13966,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.95" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
@@ -9781,31 +14053,31 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="60" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="77">
         <v>0.95</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="63">
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="77">
         <v>0.93</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
@@ -10054,7 +14326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BA907-E0A6-6A4D-89B3-B31638155774}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -10085,15 +14357,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.95" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
@@ -10172,31 +14444,31 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="69"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="77">
         <v>0</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="63">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="77">
         <v>0</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
